--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QC fresher\Automation\Exercise2\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B529C2-9E67-43AF-BE05-A9FA3DC27F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9110AE0-D0BB-493B-AC0B-E528AD77B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="61">
   <si>
     <t>Test case</t>
   </si>
@@ -363,9 +363,6 @@
     <t>name:btn_Channel,id:1</t>
   </si>
   <si>
-    <t>name:btn_Channel,id:2</t>
-  </si>
-  <si>
     <t>logOut</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>1611</t>
   </si>
   <si>
-    <t>1612</t>
-  </si>
-  <si>
     <t>name:btn_Stand</t>
   </si>
   <si>
@@ -426,7 +420,55 @@
     <t>name:btn_Close</t>
   </si>
   <si>
-    <t>name:btn_Close,width:184</t>
+    <t>69</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>name:btn_Channel,id:4</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>LDClient</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>1, 1610</t>
+  </si>
+  <si>
+    <t>2, 1610</t>
+  </si>
+  <si>
+    <t>isExist</t>
+  </si>
+  <si>
+    <t>2, 1611</t>
+  </si>
+  <si>
+    <t>3, 1612</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1| 1610</t>
+  </si>
+  <si>
+    <t>name:btn_Channel|id:1</t>
+  </si>
+  <si>
+    <t>name:btn_Close|width:184</t>
+  </si>
+  <si>
+    <t>string:You must have at least 10,000 gold.\nDo you wanna buy some?</t>
   </si>
 </sst>
 </file>
@@ -876,7 +918,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,39 +965,39 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +1010,7 @@
   <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1048,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1028,10 +1070,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1120,13 +1162,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -1145,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>14</v>
@@ -1170,7 +1212,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>14</v>
@@ -1195,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>14</v>
@@ -1214,12 +1256,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="AG16" s="11"/>
@@ -1237,7 +1281,7 @@
   <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,10 +1319,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1297,10 +1341,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1389,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -1483,12 +1527,14 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="AG16" s="11"/>
@@ -1505,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,10 +1590,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1566,10 +1612,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1658,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -1752,12 +1798,14 @@
         <v>5</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="AG16" s="11"/>
@@ -1772,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
-  <dimension ref="A1:AN17"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,10 +1861,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -1835,10 +1883,10 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1927,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -1983,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>13</v>
@@ -2005,10 +2053,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -2026,8 +2074,8 @@
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>45</v>
+      <c r="D16" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -2035,15 +2083,37 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +2166,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>13</v>
@@ -2205,10 +2275,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -2280,10 +2350,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBD0046-117A-4E58-9083-7C3DBBAE99C5}">
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,10 +2391,10 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -2339,6 +2409,14 @@
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2427,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -2452,13 +2530,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
@@ -2477,13 +2555,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>13</v>
@@ -2560,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2574,7 +2652,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2588,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2602,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2616,7 +2694,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,10 +2705,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2644,7 +2722,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2658,7 +2736,21 @@
         <v>14</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2670,10 +2762,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E8C141-FCEA-4562-AFE4-D4F9A50E8FD2}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2803,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>13</v>
@@ -2729,6 +2821,14 @@
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2820,10 +2920,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>13</v>
@@ -2845,10 +2945,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>13</v>
@@ -2905,13 +3005,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2919,13 +3019,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2936,29 +3036,29 @@
         <v>13</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>15</v>
@@ -2967,7 +3067,63 @@
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>12</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>13</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>14</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9110AE0-D0BB-493B-AC0B-E528AD77B21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BF0013-12A7-4BC6-8523-6A8A535DF40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
@@ -468,7 +468,7 @@
     <t>name:btn_Close|width:184</t>
   </si>
   <si>
-    <t>string:You must have at least 10,000 gold.\nDo you wanna buy some?</t>
+    <t>string:Not Enough Gold</t>
   </si>
 </sst>
 </file>

--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QC fresher\Automation\Exercise2\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BFE5FB-A9D6-427E-9D5D-2368A12AB840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA3FD8B-46E1-452F-BD2D-9D4D8C46F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
   <si>
     <t>Test case</t>
   </si>
@@ -119,12 +119,6 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
     <t>CheatID</t>
   </si>
   <si>
@@ -183,6 +177,9 @@
   </si>
   <si>
     <t>64</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -607,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,22 +671,6 @@
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -743,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -762,10 +743,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -847,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -891,7 +872,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -907,10 +888,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -929,7 +910,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -948,7 +929,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -961,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -1004,7 +985,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1020,7 +1001,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1039,10 +1020,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1124,13 +1105,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1168,7 +1149,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1200,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1247,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1263,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1282,10 +1263,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1367,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1411,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1443,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1466,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1471,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1506,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1514,7 +1495,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1525,10 +1506,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1610,13 +1591,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1654,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1686,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1733,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1749,7 +1730,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1768,10 +1749,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1853,13 +1834,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1897,7 +1878,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1913,10 +1894,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1935,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1954,7 +1935,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1967,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>

--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QC fresher\Automation\Exercise2\ExcelFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA3FD8B-46E1-452F-BD2D-9D4D8C46F7B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84843DBF-5896-4036-B190-5BB9B1D02724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
   <si>
     <t>Test case</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>TypeOFClient</t>
-  </si>
-  <si>
-    <t>ignore</t>
   </si>
   <si>
     <t>TC4</t>
@@ -606,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +643,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,20 +651,20 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
@@ -683,7 +680,7 @@
   <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -724,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -743,10 +740,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -828,13 +825,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -872,7 +869,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -888,10 +885,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -910,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -929,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -942,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -985,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1001,7 +998,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1020,10 +1017,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1105,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1149,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1181,7 +1178,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1228,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1244,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1263,10 +1260,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1348,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1392,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1424,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1447,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
   <dimension ref="A1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1487,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1495,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1506,10 +1503,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1591,13 +1588,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1635,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1667,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>20</v>
@@ -1691,7 +1688,7 @@
   <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1711,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1730,7 +1727,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1749,10 +1746,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1834,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1878,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1894,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1916,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1935,7 +1932,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1948,7 +1945,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>

--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84843DBF-5896-4036-B190-5BB9B1D02724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F3970DB4-BBF2-4894-A9FA-03DF958A05B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
+    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="1" r:id="rId1"/>
-    <sheet name="TC1" sheetId="2" r:id="rId2"/>
-    <sheet name="TC2" sheetId="6" r:id="rId3"/>
-    <sheet name="TC3" sheetId="7" r:id="rId4"/>
-    <sheet name="TC4" sheetId="8" r:id="rId5"/>
-    <sheet name="TC5" sheetId="9" r:id="rId6"/>
+    <sheet name="Status" r:id="rId1" sheetId="1"/>
+    <sheet name="TC1" r:id="rId2" sheetId="2"/>
+    <sheet name="TC2" r:id="rId3" sheetId="6"/>
+    <sheet name="TC3" r:id="rId4" sheetId="7"/>
+    <sheet name="TC4" r:id="rId5" sheetId="8"/>
+    <sheet name="TC5" r:id="rId6" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Test case</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Link Log</t>
   </si>
   <si>
@@ -122,15 +119,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>name:btn_Close</t>
   </si>
   <si>
@@ -146,43 +134,82 @@
     <t>1| 1610</t>
   </si>
   <si>
-    <t>name:btn_Channel|id:1</t>
-  </si>
-  <si>
     <t>name:btn_Close|width:184</t>
   </si>
   <si>
     <t>string:Not Enough Gold</t>
   </si>
   <si>
-    <t>&lt;min manila</t>
-  </si>
-  <si>
-    <t>=min manila</t>
-  </si>
-  <si>
-    <t>&lt;max manila</t>
-  </si>
-  <si>
-    <t>=max manila</t>
-  </si>
-  <si>
-    <t>&gt;max manila</t>
-  </si>
-  <si>
-    <t>1|1610</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>&lt;min makati</t>
+  </si>
+  <si>
+    <t>=min makati</t>
+  </si>
+  <si>
+    <t>&lt;max makati</t>
+  </si>
+  <si>
+    <t>=max makati</t>
+  </si>
+  <si>
+    <t>&gt;max makati</t>
+  </si>
+  <si>
+    <t>1|1611</t>
+  </si>
+  <si>
+    <t>1|1612</t>
+  </si>
+  <si>
+    <t>1|1613</t>
+  </si>
+  <si>
+    <t>1|1614</t>
+  </si>
+  <si>
+    <t>name:btn_Channel|id:2</t>
+  </si>
+  <si>
+    <t>checkUser</t>
+  </si>
+  <si>
+    <t>gold:10000001</t>
+  </si>
+  <si>
+    <t>gold:9999999</t>
+  </si>
+  <si>
+    <t>gold:500000</t>
+  </si>
+  <si>
+    <t>gold:10000000</t>
+  </si>
+  <si>
+    <t>name:btn_Accept</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>gold:499999</t>
+  </si>
+  <si>
+    <t>string:Your total gold must be less than
+10,000,000 gold.
+Please join the higher channel!</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,43 +283,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,10 +339,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -347,7 +377,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -399,7 +429,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,21 +540,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -541,7 +571,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -593,33 +623,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +686,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -664,40 +694,40 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
-  <dimension ref="A1:AO18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
+  <dimension ref="A1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="10" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="10"/>
-    <col min="37" max="37" width="9.140625" style="10" collapsed="1"/>
-    <col min="38" max="38" width="9.140625" style="10"/>
-    <col min="39" max="39" width="9.140625" style="10" collapsed="1"/>
-    <col min="40" max="41" width="9.140625" style="10"/>
-    <col min="42" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
+    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
+    <col min="38" max="38" style="10" width="9.140625" collapsed="false"/>
+    <col min="39" max="39" style="10" width="9.140625" collapsed="true"/>
+    <col min="40" max="41" style="10" width="9.140625" collapsed="false"/>
+    <col min="42" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -705,7 +735,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -718,37 +748,37 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -788,7 +818,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -822,16 +852,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -841,16 +871,16 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>3</v>
-      </c>
-      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -860,7 +890,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
@@ -869,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -879,16 +909,16 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -898,16 +928,16 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -917,7 +947,7 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>11</v>
@@ -925,8 +955,8 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>30</v>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -936,45 +966,64 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>8</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
-  <dimension ref="A1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="10" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="10"/>
-    <col min="37" max="37" width="9.140625" style="10" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="10"/>
-    <col min="41" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
+    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
+    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
+    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -982,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -995,37 +1044,37 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1114,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1102,13 +1151,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1120,14 +1169,14 @@
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1146,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1164,8 +1213,8 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1178,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1192,14 +1241,33 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
     </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
-  <dimension ref="A1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1207,17 +1275,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="10" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="10"/>
-    <col min="37" max="37" width="9.140625" style="10" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="10"/>
-    <col min="41" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
+    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
+    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
+    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1225,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1238,37 +1306,37 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1376,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1345,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1363,14 +1431,14 @@
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1389,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1407,8 +1475,8 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1421,13 +1489,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1435,32 +1503,51 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
     </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
-  <dimension ref="A1:AN16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="10" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="10"/>
-    <col min="37" max="37" width="9.140625" style="10" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="10"/>
-    <col min="41" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
+    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
+    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
+    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1468,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1481,37 +1568,37 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>45</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1551,7 +1638,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1588,13 +1675,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1606,14 +1693,14 @@
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1632,7 +1719,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1650,8 +1737,8 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>13</v>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1664,13 +1751,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1678,32 +1765,51 @@
       <c r="AF16" s="10"/>
       <c r="AG16" s="10"/>
     </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
-  <dimension ref="A1:AN18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
+  <dimension ref="A1:AH19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="35" width="9.140625" style="10" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" style="10"/>
-    <col min="37" max="37" width="9.140625" style="10" collapsed="1"/>
-    <col min="38" max="40" width="9.140625" style="10"/>
-    <col min="41" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
+    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
+    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
+    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
+    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1711,7 +1817,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -1724,37 +1830,37 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1794,7 +1900,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1831,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1849,14 +1955,14 @@
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1875,7 +1981,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1891,10 +1997,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1902,7 +2008,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row ht="45" r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -1910,10 +2016,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1931,8 +2037,8 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>30</v>
+      <c r="D17" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1945,13 +2051,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1959,7 +2065,26 @@
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
     </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{F3970DB4-BBF2-4894-A9FA-03DF958A05B4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C0A75-5367-4284-B6AB-26542EFDAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="5" windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" r:id="rId1" sheetId="1"/>
-    <sheet name="TC1" r:id="rId2" sheetId="2"/>
-    <sheet name="TC2" r:id="rId3" sheetId="6"/>
-    <sheet name="TC3" r:id="rId4" sheetId="7"/>
-    <sheet name="TC4" r:id="rId5" sheetId="8"/>
-    <sheet name="TC5" r:id="rId6" sheetId="9"/>
+    <sheet name="Status" sheetId="1" r:id="rId1"/>
+    <sheet name="TC1" sheetId="2" r:id="rId2"/>
+    <sheet name="TC2" sheetId="6" r:id="rId3"/>
+    <sheet name="TC3" sheetId="7" r:id="rId4"/>
+    <sheet name="TC4" sheetId="8" r:id="rId5"/>
+    <sheet name="TC5" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
   <si>
     <t>Test case</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>name:btn_Accept</t>
-  </si>
-  <si>
-    <t>fail</t>
   </si>
   <si>
     <t>pass</t>
@@ -202,14 +199,19 @@
 Please join the higher channel!</t>
   </si>
   <si>
-    <t/>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,46 +285,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -339,10 +341,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -377,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -429,7 +431,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -540,21 +542,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -571,7 +573,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -623,33 +625,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,7 +683,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -697,37 +699,31 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
-  <dimension ref="A1:AH19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
-    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
-    <col min="38" max="38" style="10" width="9.140625" collapsed="false"/>
-    <col min="39" max="39" style="10" width="9.140625" collapsed="true"/>
-    <col min="40" max="41" style="10" width="9.140625" collapsed="false"/>
-    <col min="42" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -759,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -776,9 +772,9 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -818,7 +814,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -880,7 +876,7 @@
         <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -987,43 +983,58 @@
       <c r="A19" s="9">
         <v>8</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>9</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
-  <dimension ref="A1:AH17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
-    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
-    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
-    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1055,7 +1066,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1072,9 +1083,9 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1114,7 +1125,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1246,13 +1257,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1260,32 +1271,47 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
     </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
-  <dimension ref="A1:AH17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
-    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
-    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
-    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1317,7 +1343,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1334,9 +1360,9 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1402,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1508,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1522,32 +1548,47 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
     </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
-  <dimension ref="A1:AH17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
-    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
-    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
-    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1579,7 +1620,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1596,9 +1637,9 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1679,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1770,13 +1811,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1784,32 +1825,47 @@
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
     </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
-  <dimension ref="A1:AH19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
+  <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="35" style="10" width="9.140625" collapsed="true"/>
-    <col min="36" max="36" style="10" width="9.140625" collapsed="false"/>
-    <col min="37" max="37" style="10" width="9.140625" collapsed="true"/>
-    <col min="38" max="40" style="10" width="9.140625" collapsed="false"/>
-    <col min="41" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1841,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -1858,9 +1914,9 @@
         <v>25</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1956,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2064,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
     </row>
-    <row ht="45" r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -2019,7 +2075,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2070,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2084,7 +2140,26 @@
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
     </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>9</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17C0A75-5367-4284-B6AB-26542EFDAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5A17F163-47F5-4B57-B8F9-3E564A43EB84}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" sheetId="1" r:id="rId1"/>
-    <sheet name="TC1" sheetId="2" r:id="rId2"/>
-    <sheet name="TC2" sheetId="6" r:id="rId3"/>
-    <sheet name="TC3" sheetId="7" r:id="rId4"/>
-    <sheet name="TC4" sheetId="8" r:id="rId5"/>
-    <sheet name="TC5" sheetId="9" r:id="rId6"/>
+    <sheet name="Status" r:id="rId1" sheetId="1"/>
+    <sheet name="TC1" r:id="rId2" sheetId="2"/>
+    <sheet name="TC2" r:id="rId3" sheetId="6"/>
+    <sheet name="TC3" r:id="rId4" sheetId="7"/>
+    <sheet name="TC4" r:id="rId5" sheetId="8"/>
+    <sheet name="TC5" r:id="rId6" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="56">
   <si>
     <t>Test case</t>
   </si>
@@ -199,19 +199,23 @@
 Please join the higher channel!</t>
   </si>
   <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>ignore</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>500</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,46 +289,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,10 +345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -379,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -431,7 +435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -542,21 +546,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -573,7 +577,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -625,33 +629,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +695,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,17 +703,17 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
-  <dimension ref="A1:AG20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
@@ -717,13 +721,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -772,9 +776,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -814,7 +818,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -987,10 +991,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -1014,13 +1018,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
-  <dimension ref="A1:AG18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
@@ -1028,13 +1032,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1083,9 +1087,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1129,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1260,10 +1264,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1291,27 +1295,27 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
-  <dimension ref="A1:AG18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
+  <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1360,9 +1364,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1406,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1537,10 +1541,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1568,13 +1572,13 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
-  <dimension ref="A1:AG18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A18"/>
@@ -1582,13 +1586,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1637,9 +1641,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1679,7 +1683,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -1814,10 +1818,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1845,13 +1849,13 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
-  <dimension ref="A1:AG20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
+  <dimension ref="A1:AH20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A20"/>
@@ -1859,13 +1863,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
-    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
+    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
+    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
+    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -1914,9 +1918,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1960,7 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2064,7 +2068,7 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
     </row>
-    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>5</v>
       </c>
@@ -2129,10 +2133,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2160,6 +2164,6 @@
       <c r="AG20" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ExcelFile/ChannelTestCase.xlsx
+++ b/ExcelFile/ChannelTestCase.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lucky 9\AutomationProject\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5A17F163-47F5-4B57-B8F9-3E564A43EB84}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306EB7ED-CAE4-4E32-BB93-98966BF7A363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A88D4D40-DE2A-4B7B-92FB-FD6D793C9607}"/>
   </bookViews>
   <sheets>
-    <sheet name="Status" r:id="rId1" sheetId="1"/>
-    <sheet name="TC1" r:id="rId2" sheetId="2"/>
-    <sheet name="TC2" r:id="rId3" sheetId="6"/>
-    <sheet name="TC3" r:id="rId4" sheetId="7"/>
-    <sheet name="TC4" r:id="rId5" sheetId="8"/>
-    <sheet name="TC5" r:id="rId6" sheetId="9"/>
+    <sheet name="Status" sheetId="1" r:id="rId1"/>
+    <sheet name="TC1" sheetId="2" r:id="rId2"/>
+    <sheet name="TC2" sheetId="6" r:id="rId3"/>
+    <sheet name="TC3" sheetId="7" r:id="rId4"/>
+    <sheet name="TC4" sheetId="8" r:id="rId5"/>
+    <sheet name="TC5" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="54">
   <si>
     <t>Test case</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>TC3</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>Step</t>
@@ -206,16 +203,12 @@
   </si>
   <si>
     <t>ignore</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,46 +282,46 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="11" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +338,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -383,7 +376,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,21 +539,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +570,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -629,33 +622,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FF45F-0E6A-4B83-BE00-0F6DFB90CB65}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="37.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="58.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="58.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,33 +680,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
-  <dimension ref="A1:AH20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF7F4FD-ED64-44E1-AE17-957E67E2797A}">
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
@@ -721,75 +714,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -818,9 +811,9 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
@@ -855,13 +848,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -874,13 +867,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -893,13 +886,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -912,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -931,13 +924,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -950,13 +943,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -969,13 +962,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -988,13 +981,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -1007,24 +1000,24 @@
         <v>9</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
-  <dimension ref="A1:AH18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546BB56A-3AB3-438B-B532-E94E1260A9EC}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
@@ -1032,75 +1025,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1129,9 +1122,9 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
@@ -1166,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1185,13 +1178,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1204,13 +1197,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1223,13 +1216,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1242,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1261,13 +1254,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1280,13 +1273,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1295,13 +1288,13 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
-  <dimension ref="A1:AH18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE530BDD-8E57-4324-BC76-E770412602EC}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -1309,75 +1302,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1406,9 +1399,9 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
@@ -1443,13 +1436,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1462,13 +1455,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1481,13 +1474,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1500,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1519,13 +1512,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1538,13 +1531,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1557,13 +1550,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1572,13 +1565,13 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
-  <dimension ref="A1:AH18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEAB140-46BE-4F76-849B-EBF08A0BD99A}">
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A18"/>
@@ -1586,75 +1579,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1683,9 +1676,9 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
@@ -1720,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1739,13 +1732,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1758,13 +1751,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -1777,13 +1770,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -1796,13 +1789,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -1815,13 +1808,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1834,13 +1827,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1849,13 +1842,13 @@
       <c r="AG18" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
-  <dimension ref="A1:AH20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EDBB62F-7D19-4C7A-8C3A-14DDE3EC078A}">
+  <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A20"/>
@@ -1863,75 +1856,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="10" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="11.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="10" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="12" width="54.42578125" collapsed="true"/>
-    <col min="5" max="6" style="10" width="9.140625" collapsed="true"/>
-    <col min="7" max="33" style="13" width="9.140625" collapsed="true"/>
-    <col min="34" max="16384" style="10" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.42578125" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="33" width="9.140625" style="13" collapsed="1"/>
+    <col min="34" max="16384" width="9.140625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="13" spans="1:33" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1960,9 +1953,9 @@
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
     </row>
-    <row customFormat="1" r="11" s="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="13"/>
@@ -1997,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2016,13 +2009,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -2035,13 +2028,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -2054,13 +2047,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
@@ -2068,18 +2061,18 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
     </row>
-    <row ht="45" r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2092,13 +2085,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -2111,13 +2104,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -2130,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -2149,13 +2142,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -2164,6 +2157,6 @@
       <c r="AG20" s="10"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>